--- a/biology/Zoologie/Jiangjunosaurus/Jiangjunosaurus.xlsx
+++ b/biology/Zoologie/Jiangjunosaurus/Jiangjunosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiangjunosaurus junggarensis
-Jiangjunosaurus est un genre éteint de dinosaures ornithischiens de la famille des Stegosauridae qui vivait durant l'Oxfordien au (Jurassique supérieur). Il a été découvert dans la formation de Shishugou dans l'ouest de la Chine, dans la région autonome du Xinjiang[2],[1].
-Une seule espèce est rattachée au genre, Jiangjunosaurus junggarensis, décrite par Jia Chengkai et ses collègues en 2007[1].
+Jiangjunosaurus est un genre éteint de dinosaures ornithischiens de la famille des Stegosauridae qui vivait durant l'Oxfordien au (Jurassique supérieur). Il a été découvert dans la formation de Shishugou dans l'ouest de la Chine, dans la région autonome du Xinjiang,.
+Une seule espèce est rattachée au genre, Jiangjunosaurus junggarensis, décrite par Jia Chengkai et ses collègues en 2007.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls la mandibule, des os du crâne, onze vertèbres du cou et deux plaques ont été retrouvés.
 </t>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jiangjunosaurus junggarensis mesurait environ 6 mètres de long pour une masse de 2,5 tonnes.
-Ce stégosauridé basal présente trois traits caractéristiques[1] :
+Ce stégosauridé basal présente trois traits caractéristiques :
 ses couronnes dentaires sont symétriques et, en vue latérale, plus larges que hautes ;
 sa seconde vertèbre du cou, a un profil rectangulaire en vue latérale, et non triangulaire ;
 les vertèbres de sa nuque montrent sur leurs côtés des foramens où passaient de grandes veines.</t>
@@ -578,9 +594,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pourrait avoir été une proie du théropode Yangchuanosaurus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pourrait avoir été une proie du théropode Yangchuanosaurus.
 </t>
         </is>
       </c>
